--- a/Planificacion.xlsx
+++ b/Planificacion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jose/workspace/IGF_DAM_AD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47F52AAD-9A24-0742-91F4-AB743D959883}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7944224B-62D1-AC49-BA0B-27EBA5388D8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30080" yWindow="500" windowWidth="30080" windowHeight="33340" xr2:uid="{5E18156F-B0BC-0E4D-8B55-2479C84E7F2C}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="43">
   <si>
     <t>Fecha</t>
   </si>
@@ -90,24 +90,6 @@
     <t>Dia del Exámen</t>
   </si>
   <si>
-    <t xml:space="preserve">ficheros Laravel parte 1 </t>
-  </si>
-  <si>
-    <t>ficheros Laravel parte 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ficheros SpringBoot parte 1 </t>
-  </si>
-  <si>
-    <t>ficheros Django parte 2</t>
-  </si>
-  <si>
-    <t>ficheros JavaScript parte 1</t>
-  </si>
-  <si>
-    <t>ficheros JavaScript parte 2</t>
-  </si>
-  <si>
     <t>Repaso Docker + Presentación PR1</t>
   </si>
   <si>
@@ -138,12 +120,6 @@
     <t>Repaso y dudas + Presentación PR2</t>
   </si>
   <si>
-    <t xml:space="preserve">ficheros Django parte 1 </t>
-  </si>
-  <si>
-    <t>ficheros SpringBoot parte 2 + Presentación PR2</t>
-  </si>
-  <si>
     <t>MR parte 2: E-R to MR</t>
   </si>
   <si>
@@ -172,6 +148,24 @@
   </si>
   <si>
     <t>vaga estudiantil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ficheros Laravel  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ficheros Laravel </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ficheros SpringBoot </t>
+  </si>
+  <si>
+    <t>ficheros SpringBoot + Presentación PR2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ficheros Django </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ficheros JavaScript </t>
   </si>
 </sst>
 </file>
@@ -876,7 +870,7 @@
   <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="228" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -933,7 +927,7 @@
         <v>45562</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E4" s="1"/>
     </row>
@@ -993,7 +987,7 @@
         <v>45576</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E8" s="1"/>
     </row>
@@ -1022,7 +1016,7 @@
         <v>45583</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -1050,7 +1044,7 @@
         <v>45587</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -1064,7 +1058,7 @@
         <v>45590</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -1078,7 +1072,7 @@
         <v>45594</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -1092,7 +1086,7 @@
         <v>45601</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -1106,7 +1100,7 @@
         <v>45604</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -1134,7 +1128,7 @@
         <v>45608</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -1148,7 +1142,7 @@
         <v>45611</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -1162,7 +1156,7 @@
         <v>45615</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -1176,7 +1170,7 @@
         <v>45618</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -1190,7 +1184,7 @@
         <v>45622</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -1204,7 +1198,7 @@
         <v>45625</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -1218,7 +1212,7 @@
         <v>45629</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -1282,7 +1276,7 @@
         <v>45583</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
@@ -1304,7 +1298,7 @@
         <v>45611</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.2">
@@ -1315,7 +1309,7 @@
         <v>45625</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1373,7 +1367,7 @@
         <v>45664</v>
       </c>
       <c r="D3" s="31" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -1385,7 +1379,7 @@
         <v>45667</v>
       </c>
       <c r="D4" s="31" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F4" s="34"/>
     </row>
@@ -1398,7 +1392,7 @@
         <v>45671</v>
       </c>
       <c r="D5" s="31" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="F5" s="34"/>
     </row>
@@ -1411,7 +1405,7 @@
         <v>45674</v>
       </c>
       <c r="D6" s="31" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F6" s="34"/>
     </row>
@@ -1424,7 +1418,7 @@
         <v>45678</v>
       </c>
       <c r="D7" s="31" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -1436,7 +1430,7 @@
         <v>45681</v>
       </c>
       <c r="D8" s="32" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -1448,7 +1442,7 @@
         <v>45685</v>
       </c>
       <c r="D9" s="31" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -1460,7 +1454,7 @@
         <v>45688</v>
       </c>
       <c r="D10" s="31" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -1472,7 +1466,7 @@
         <v>45692</v>
       </c>
       <c r="D11" s="33" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -1484,7 +1478,7 @@
         <v>45694</v>
       </c>
       <c r="D12" s="31" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -1522,7 +1516,7 @@
         <v>45667</v>
       </c>
       <c r="D17" s="31" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -1532,7 +1526,7 @@
         <v>45681</v>
       </c>
       <c r="D18" s="32" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">

--- a/Planificacion.xlsx
+++ b/Planificacion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jose/workspace/IGF_DAM_AD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7944224B-62D1-AC49-BA0B-27EBA5388D8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B2568E7-22D7-E942-B967-EDB227645EAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30080" yWindow="500" windowWidth="30080" windowHeight="33340" xr2:uid="{5E18156F-B0BC-0E4D-8B55-2479C84E7F2C}"/>
+    <workbookView xWindow="3520" yWindow="500" windowWidth="30080" windowHeight="20500" xr2:uid="{5E18156F-B0BC-0E4D-8B55-2479C84E7F2C}"/>
   </bookViews>
   <sheets>
     <sheet name="1 Evaluacion" sheetId="2" r:id="rId1"/>
@@ -869,8 +869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83BDFA92-E1F7-254B-9F8D-AE9082C3C1D0}">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="228" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="200" zoomScaleNormal="228" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1035,7 +1035,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B12" s="20" t="s">
         <v>5</v>

--- a/Planificacion.xlsx
+++ b/Planificacion.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jose/workspace/IGF_DAM_AD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B2568E7-22D7-E942-B967-EDB227645EAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{184BA106-F32C-BA42-B308-9C7C9EC7CFE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3520" yWindow="500" windowWidth="30080" windowHeight="20500" xr2:uid="{5E18156F-B0BC-0E4D-8B55-2479C84E7F2C}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{5E18156F-B0BC-0E4D-8B55-2479C84E7F2C}"/>
   </bookViews>
   <sheets>
     <sheet name="1 Evaluacion" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="44">
   <si>
     <t>Fecha</t>
   </si>
@@ -117,9 +117,6 @@
     <t>Repaso y dudas</t>
   </si>
   <si>
-    <t>Repaso y dudas + Presentación PR2</t>
-  </si>
-  <si>
     <t>MR parte 2: E-R to MR</t>
   </si>
   <si>
@@ -166,6 +163,12 @@
   </si>
   <si>
     <t xml:space="preserve">ficheros JavaScript </t>
+  </si>
+  <si>
+    <t>Repaso y dudas + Presentación PR2 + abrir exámen Docker</t>
+  </si>
+  <si>
+    <t>lunes, 11 de noviembre 2024</t>
   </si>
 </sst>
 </file>
@@ -175,7 +178,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -236,6 +239,21 @@
     </font>
     <font>
       <sz val="12"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -366,7 +384,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -511,6 +529,16 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -867,10 +895,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83BDFA92-E1F7-254B-9F8D-AE9082C3C1D0}">
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="200" zoomScaleNormal="228" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -927,7 +955,7 @@
         <v>45562</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E4" s="1"/>
     </row>
@@ -987,7 +1015,7 @@
         <v>45576</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E8" s="1"/>
     </row>
@@ -1086,7 +1114,7 @@
         <v>45601</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -1100,7 +1128,7 @@
         <v>45604</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -1128,7 +1156,7 @@
         <v>45608</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -1142,7 +1170,7 @@
         <v>45611</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -1156,7 +1184,7 @@
         <v>45615</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -1170,7 +1198,7 @@
         <v>45618</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -1184,7 +1212,7 @@
         <v>45622</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -1198,7 +1226,7 @@
         <v>45625</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -1284,31 +1312,43 @@
         <v>5</v>
       </c>
       <c r="C32" s="16">
-        <v>45586</v>
+        <v>45600</v>
       </c>
       <c r="D32" s="18" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B33" s="25" t="s">
+    <row r="33" spans="2:5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="D33" s="52" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="53"/>
+    </row>
+    <row r="34" spans="2:5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C33" s="4">
+      <c r="C34" s="4">
         <v>45611</v>
       </c>
-      <c r="D33" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B34" s="26" t="s">
+      <c r="D34" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="C34" s="6">
+      <c r="C35" s="6">
         <v>45625</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="D35" s="7" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1367,7 +1407,7 @@
         <v>45664</v>
       </c>
       <c r="D3" s="31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -1379,7 +1419,7 @@
         <v>45667</v>
       </c>
       <c r="D4" s="31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F4" s="34"/>
     </row>
@@ -1392,7 +1432,7 @@
         <v>45671</v>
       </c>
       <c r="D5" s="31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F5" s="34"/>
     </row>
@@ -1405,7 +1445,7 @@
         <v>45674</v>
       </c>
       <c r="D6" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F6" s="34"/>
     </row>
@@ -1418,7 +1458,7 @@
         <v>45678</v>
       </c>
       <c r="D7" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -1430,7 +1470,7 @@
         <v>45681</v>
       </c>
       <c r="D8" s="32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -1442,7 +1482,7 @@
         <v>45685</v>
       </c>
       <c r="D9" s="31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -1454,7 +1494,7 @@
         <v>45688</v>
       </c>
       <c r="D10" s="31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -1466,7 +1506,7 @@
         <v>45692</v>
       </c>
       <c r="D11" s="33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -1478,7 +1518,7 @@
         <v>45694</v>
       </c>
       <c r="D12" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">

--- a/Planificacion.xlsx
+++ b/Planificacion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jose/workspace/IGF_DAM_AD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{184BA106-F32C-BA42-B308-9C7C9EC7CFE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFB6B211-77D6-9440-965B-A8BE8E859684}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{5E18156F-B0BC-0E4D-8B55-2479C84E7F2C}"/>
+    <workbookView xWindow="60160" yWindow="13840" windowWidth="33600" windowHeight="20500" xr2:uid="{5E18156F-B0BC-0E4D-8B55-2479C84E7F2C}"/>
   </bookViews>
   <sheets>
     <sheet name="1 Evaluacion" sheetId="2" r:id="rId1"/>
@@ -93,21 +93,9 @@
     <t>Repaso Docker + Presentación PR1</t>
   </si>
   <si>
-    <t>docker parte 3 + Presentación PR1</t>
-  </si>
-  <si>
     <t>repaso</t>
   </si>
   <si>
-    <t>Frameworks parte 1</t>
-  </si>
-  <si>
-    <t>Frameworks parte 2</t>
-  </si>
-  <si>
-    <t>Frameworks parte 3</t>
-  </si>
-  <si>
     <t>Presentar PR3</t>
   </si>
   <si>
@@ -169,6 +157,18 @@
   </si>
   <si>
     <t>lunes, 11 de noviembre 2024</t>
+  </si>
+  <si>
+    <t>Laravel parte1</t>
+  </si>
+  <si>
+    <t>docker complementaria + Presentación PR1</t>
+  </si>
+  <si>
+    <t>Persistencia de los datos parte 1</t>
+  </si>
+  <si>
+    <t>Persistencia de los datos parte 2</t>
   </si>
 </sst>
 </file>
@@ -514,6 +514,16 @@
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -529,16 +539,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -897,8 +897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83BDFA92-E1F7-254B-9F8D-AE9082C3C1D0}">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -911,12 +911,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="b">
@@ -955,7 +955,7 @@
         <v>45562</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E4" s="1"/>
     </row>
@@ -1015,7 +1015,7 @@
         <v>45576</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E8" s="1"/>
     </row>
@@ -1044,7 +1044,7 @@
         <v>45583</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -1072,7 +1072,7 @@
         <v>45587</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -1086,7 +1086,7 @@
         <v>45590</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -1100,7 +1100,7 @@
         <v>45594</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -1114,7 +1114,7 @@
         <v>45601</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -1128,7 +1128,7 @@
         <v>45604</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -1156,7 +1156,7 @@
         <v>45608</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -1170,7 +1170,7 @@
         <v>45611</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -1184,7 +1184,7 @@
         <v>45615</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -1198,7 +1198,7 @@
         <v>45618</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -1212,7 +1212,7 @@
         <v>45622</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -1226,7 +1226,7 @@
         <v>45625</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -1240,7 +1240,7 @@
         <v>45629</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -1256,11 +1256,11 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B27" s="45" t="s">
+      <c r="B27" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="C27" s="46"/>
-      <c r="D27" s="47"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="51"/>
       <c r="E27" s="27"/>
       <c r="F27" s="27"/>
     </row>
@@ -1319,16 +1319,16 @@
       </c>
     </row>
     <row r="33" spans="2:5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="C33" s="51" t="s">
-        <v>43</v>
-      </c>
-      <c r="D33" s="52" t="s">
+      <c r="B33" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="D33" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="E33" s="53"/>
+      <c r="E33" s="48"/>
     </row>
     <row r="34" spans="2:5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B34" s="25" t="s">
@@ -1338,7 +1338,7 @@
         <v>45611</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" spans="2:5" customFormat="1" x14ac:dyDescent="0.2">
@@ -1349,7 +1349,7 @@
         <v>45625</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1379,12 +1379,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="35" t="b">
@@ -1407,7 +1407,7 @@
         <v>45664</v>
       </c>
       <c r="D3" s="31" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -1419,7 +1419,7 @@
         <v>45667</v>
       </c>
       <c r="D4" s="31" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F4" s="34"/>
     </row>
@@ -1432,7 +1432,7 @@
         <v>45671</v>
       </c>
       <c r="D5" s="31" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F5" s="34"/>
     </row>
@@ -1445,7 +1445,7 @@
         <v>45674</v>
       </c>
       <c r="D6" s="31" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F6" s="34"/>
     </row>
@@ -1458,7 +1458,7 @@
         <v>45678</v>
       </c>
       <c r="D7" s="31" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -1470,7 +1470,7 @@
         <v>45681</v>
       </c>
       <c r="D8" s="32" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -1482,7 +1482,7 @@
         <v>45685</v>
       </c>
       <c r="D9" s="31" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -1494,7 +1494,7 @@
         <v>45688</v>
       </c>
       <c r="D10" s="31" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -1506,7 +1506,7 @@
         <v>45692</v>
       </c>
       <c r="D11" s="33" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -1518,7 +1518,7 @@
         <v>45694</v>
       </c>
       <c r="D12" s="31" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -1533,11 +1533,11 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
-      <c r="B15" s="49" t="s">
+      <c r="B15" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="49"/>
-      <c r="D15" s="49"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="53"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
@@ -1556,7 +1556,7 @@
         <v>45667</v>
       </c>
       <c r="D17" s="31" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -1566,7 +1566,7 @@
         <v>45681</v>
       </c>
       <c r="D18" s="32" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">

--- a/Planificacion.xlsx
+++ b/Planificacion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jose/workspace/IGF_DAM_AD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFB6B211-77D6-9440-965B-A8BE8E859684}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00B9BE18-4C4C-1943-B6BA-012E4B1502EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="60160" yWindow="13840" windowWidth="33600" windowHeight="20500" xr2:uid="{5E18156F-B0BC-0E4D-8B55-2479C84E7F2C}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="40">
   <si>
     <t>Fecha</t>
   </si>
@@ -139,18 +139,6 @@
   </si>
   <si>
     <t xml:space="preserve">ficheros Laravel </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ficheros SpringBoot </t>
-  </si>
-  <si>
-    <t>ficheros SpringBoot + Presentación PR2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ficheros Django </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ficheros JavaScript </t>
   </si>
   <si>
     <t>Repaso y dudas + Presentación PR2 + abrir exámen Docker</t>
@@ -897,8 +885,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83BDFA92-E1F7-254B-9F8D-AE9082C3C1D0}">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20:D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1044,7 +1032,7 @@
         <v>45583</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -1072,7 +1060,7 @@
         <v>45587</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -1086,7 +1074,7 @@
         <v>45590</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -1100,7 +1088,7 @@
         <v>45594</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -1156,7 +1144,7 @@
         <v>45608</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -1170,7 +1158,7 @@
         <v>45611</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -1184,7 +1172,7 @@
         <v>45615</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -1198,7 +1186,7 @@
         <v>45618</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -1212,7 +1200,7 @@
         <v>45622</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -1226,7 +1214,7 @@
         <v>45625</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -1323,7 +1311,7 @@
         <v>5</v>
       </c>
       <c r="C33" s="46" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D33" s="47" t="s">
         <v>4</v>
@@ -1338,7 +1326,7 @@
         <v>45611</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35" spans="2:5" customFormat="1" x14ac:dyDescent="0.2">
@@ -1367,7 +1355,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D7"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Planificacion.xlsx
+++ b/Planificacion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jose/workspace/IGF_DAM_AD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00B9BE18-4C4C-1943-B6BA-012E4B1502EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5388A8B3-4FC9-6941-ADAC-7A8D12438DAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60160" yWindow="13840" windowWidth="33600" windowHeight="20500" xr2:uid="{5E18156F-B0BC-0E4D-8B55-2479C84E7F2C}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{5E18156F-B0BC-0E4D-8B55-2479C84E7F2C}"/>
   </bookViews>
   <sheets>
     <sheet name="1 Evaluacion" sheetId="2" r:id="rId1"/>
@@ -372,7 +372,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -527,6 +527,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -885,8 +886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83BDFA92-E1F7-254B-9F8D-AE9082C3C1D0}">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20:D24"/>
+    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1073,8 +1074,8 @@
       <c r="C13" s="12">
         <v>45590</v>
       </c>
-      <c r="D13" s="13" t="s">
-        <v>38</v>
+      <c r="D13" s="14" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -1088,7 +1089,7 @@
         <v>45594</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -1098,11 +1099,11 @@
       <c r="B15" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="12">
         <v>45601</v>
       </c>
-      <c r="D15" s="7" t="s">
-        <v>32</v>
+      <c r="D15" s="13" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -1132,6 +1133,7 @@
       <c r="D17" s="18" t="s">
         <v>4</v>
       </c>
+      <c r="F17" s="54"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="b">
@@ -1250,7 +1252,6 @@
       <c r="C27" s="50"/>
       <c r="D27" s="51"/>
       <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B28" s="24"/>
@@ -1355,7 +1356,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
